--- a/DRP 9-5.xlsx
+++ b/DRP 9-5.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA88CB0-2D4B-480D-9AE9-ACEC56F96222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Social networks" sheetId="2" r:id="rId1"/>
     <sheet name="Marketplace" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Social networks'!$G$1:$G$35</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="65">
   <si>
     <t>link</t>
   </si>
@@ -41,9 +45,6 @@
     <t>detected</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.facebook.com/groups/1125706994191762/posts/5418104184952000/</t>
   </si>
   <si>
@@ -174,16 +175,55 @@
   </si>
   <si>
     <t>Recommended Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After checking URL it was found a post with multiple job posting furthermore it contains suspicious URLs found in post was shortend in order to access websites with no any offical posts related to real job opportuinties. </t>
+  </si>
+  <si>
+    <t>Take down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After checking URL it was found a post with multiple job posting furthermore it contains suspicious URLs found in post was shortend in order to access websites that redirect to linked in with no valid post for the offerd job </t>
+  </si>
+  <si>
+    <t>After checking URL it was found a post with job posting furthermore it URL for accessing a website that redirect to landing page related to adibegypt.taleo.net which is legit</t>
+  </si>
+  <si>
+    <t>Rejection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After checking URL we found post with link that redirect to ADIBEG offical website with no suspicious or malicious activity observed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After checking URL it was found a post with multiple job posting furthermore it contains suspicious URLs found in post in order to access websites with no any offical posts related to real job opportuinties. </t>
+  </si>
+  <si>
+    <t>After checking URL we found post with post for call center agent with no suspicious or malicious indicators found</t>
+  </si>
+  <si>
+    <t>After checking URL we found Post related to real job posting with redirection from a link to valid opportuinties found in linked in</t>
+  </si>
+  <si>
+    <t>After Checking URL we found a chineses website for purchasing goods with no brand name related to ADIB however after checking mentioned website was  previously involved in fraud activities related to online purchasing with subdomains with malicious reputation.</t>
+  </si>
+  <si>
+    <t>After Checking URL we found it related to Amazon with nothing related to ADIB brand name found in webpage furthermore purchase process was found with no malicious activity related to it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Checking URL we found website related to online shopping with no suspicious or malicious activity related to ADIB branding </t>
+  </si>
+  <si>
+    <t>After Checking URL we found Website related to Alibaba for online purchasing with nothing malicious afffecting ADIB brand name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +244,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,11 +303,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -254,8 +325,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,24 +611,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="64.21875" customWidth="1"/>
-    <col min="3" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="184.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -565,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -587,9 +667,11 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -597,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -608,9 +690,11 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -618,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -629,9 +713,11 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -639,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -650,9 +736,11 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -660,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -671,17 +759,19 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -692,9 +782,11 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -702,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -713,9 +805,11 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -723,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -734,9 +828,11 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -755,9 +851,11 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -765,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -776,9 +874,11 @@
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -786,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -797,9 +897,11 @@
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -807,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -818,9 +920,11 @@
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -828,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -839,9 +943,11 @@
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -849,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -860,9 +966,11 @@
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
+      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -870,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -881,9 +989,11 @@
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -891,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -902,9 +1012,11 @@
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -912,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -923,9 +1035,11 @@
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -933,7 +1047,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -944,9 +1058,11 @@
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -954,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -965,9 +1081,11 @@
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -975,7 +1093,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -986,9 +1104,11 @@
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -996,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1007,9 +1127,11 @@
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1017,7 +1139,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1028,9 +1150,11 @@
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1038,7 +1162,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1049,9 +1173,11 @@
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
+      <c r="F24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1059,7 +1185,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1070,9 +1196,11 @@
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
+      <c r="F25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1080,7 +1208,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1091,9 +1219,11 @@
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
+      <c r="F26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1101,7 +1231,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1112,9 +1242,11 @@
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
+      <c r="F27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1122,7 +1254,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1133,9 +1265,11 @@
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1143,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1154,9 +1288,11 @@
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>8</v>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,7 +1300,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1175,9 +1311,11 @@
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>8</v>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1185,7 +1323,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -1196,9 +1334,11 @@
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>8</v>
+      <c r="F31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1206,7 +1346,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1217,9 +1357,11 @@
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>8</v>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1227,7 +1369,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1238,9 +1380,11 @@
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>8</v>
+      <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1248,7 +1392,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1259,9 +1403,11 @@
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>8</v>
+      <c r="F34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1269,7 +1415,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -1280,23 +1426,29 @@
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>8</v>
+      <c r="F35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{EEB865AF-AC49-4281-8348-3FA2084147D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,13 +1457,13 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="185.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1326,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,16 +1489,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1354,16 +1512,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,16 +1535,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1388,16 +1558,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
